--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.3338047639602</v>
+        <v>40.31719433333333</v>
       </c>
       <c r="H2">
-        <v>19.3338047639602</v>
+        <v>120.951583</v>
       </c>
       <c r="I2">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="J2">
-        <v>0.06429958596051116</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.97730092922648</v>
+        <v>0.029758</v>
       </c>
       <c r="N2">
-        <v>6.97730092922648</v>
+        <v>0.08927399999999999</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.003438994103662516</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.003438994103662516</v>
       </c>
       <c r="Q2">
-        <v>134.8977739450629</v>
+        <v>1.199759068971333</v>
       </c>
       <c r="R2">
-        <v>134.8977739450629</v>
+        <v>10.797831620742</v>
       </c>
       <c r="S2">
-        <v>0.06429958596051116</v>
+        <v>0.0003626259238112146</v>
       </c>
       <c r="T2">
-        <v>0.06429958596051116</v>
+        <v>0.0003626259238112146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>137.229766986902</v>
+        <v>40.31719433333333</v>
       </c>
       <c r="H3">
-        <v>137.229766986902</v>
+        <v>120.951583</v>
       </c>
       <c r="I3">
-        <v>0.4563932090161344</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="J3">
-        <v>0.4563932090161344</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>6.97730092922648</v>
+        <v>0.09932533333333333</v>
       </c>
       <c r="N3">
-        <v>6.97730092922648</v>
+        <v>0.297976</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.01147856830693082</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01147856830693082</v>
       </c>
       <c r="Q3">
-        <v>957.4933807152447</v>
+        <v>4.004518766223111</v>
       </c>
       <c r="R3">
-        <v>957.4933807152447</v>
+        <v>36.040668896008</v>
       </c>
       <c r="S3">
-        <v>0.4563932090161344</v>
+        <v>0.001210361608907078</v>
       </c>
       <c r="T3">
-        <v>0.4563932090161344</v>
+        <v>0.001210361608907078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.8577508184308</v>
+        <v>40.31719433333333</v>
       </c>
       <c r="H4">
-        <v>63.8577508184308</v>
+        <v>120.951583</v>
       </c>
       <c r="I4">
-        <v>0.212375525051777</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="J4">
-        <v>0.212375525051777</v>
+        <v>0.1054453461914981</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.97730092922648</v>
+        <v>8.144105333333334</v>
       </c>
       <c r="N4">
-        <v>6.97730092922648</v>
+        <v>24.432316</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9411764977800856</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9411764977800856</v>
       </c>
       <c r="Q4">
-        <v>445.5547441237503</v>
+        <v>328.3474773951365</v>
       </c>
       <c r="R4">
-        <v>445.5547441237503</v>
+        <v>2955.127296556228</v>
       </c>
       <c r="S4">
-        <v>0.212375525051777</v>
+        <v>0.09924268163572283</v>
       </c>
       <c r="T4">
-        <v>0.212375525051777</v>
+        <v>0.09924268163572285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,799 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>40.31719433333333</v>
+      </c>
+      <c r="H5">
+        <v>120.951583</v>
+      </c>
+      <c r="I5">
+        <v>0.1054453461914981</v>
+      </c>
+      <c r="J5">
+        <v>0.1054453461914981</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.379923</v>
+      </c>
+      <c r="N5">
+        <v>1.139769</v>
+      </c>
+      <c r="O5">
+        <v>0.043905939809321</v>
+      </c>
+      <c r="P5">
+        <v>0.043905939809321</v>
+      </c>
+      <c r="Q5">
+        <v>15.317429422703</v>
+      </c>
+      <c r="R5">
+        <v>137.856864804327</v>
+      </c>
+      <c r="S5">
+        <v>0.004629677023056929</v>
+      </c>
+      <c r="T5">
+        <v>0.004629677023056929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>137.4747006666667</v>
+      </c>
+      <c r="H6">
+        <v>412.424102</v>
+      </c>
+      <c r="I6">
+        <v>0.3595505005759843</v>
+      </c>
+      <c r="J6">
+        <v>0.3595505005759843</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.029758</v>
+      </c>
+      <c r="N6">
+        <v>0.08927399999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.003438994103662516</v>
+      </c>
+      <c r="P6">
+        <v>0.003438994103662516</v>
+      </c>
+      <c r="Q6">
+        <v>4.090972142438667</v>
+      </c>
+      <c r="R6">
+        <v>36.81874928194799</v>
+      </c>
+      <c r="S6">
+        <v>0.001236492051449716</v>
+      </c>
+      <c r="T6">
+        <v>0.001236492051449716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>137.4747006666667</v>
+      </c>
+      <c r="H7">
+        <v>412.424102</v>
+      </c>
+      <c r="I7">
+        <v>0.3595505005759843</v>
+      </c>
+      <c r="J7">
+        <v>0.3595505005759843</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.09932533333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.297976</v>
+      </c>
+      <c r="O7">
+        <v>0.01147856830693082</v>
+      </c>
+      <c r="P7">
+        <v>0.01147856830693082</v>
+      </c>
+      <c r="Q7">
+        <v>13.65472046861689</v>
+      </c>
+      <c r="R7">
+        <v>122.892484217552</v>
+      </c>
+      <c r="S7">
+        <v>0.004127124980652605</v>
+      </c>
+      <c r="T7">
+        <v>0.004127124980652605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>80.26186963405689</v>
-      </c>
-      <c r="H5">
-        <v>80.26186963405689</v>
-      </c>
-      <c r="I5">
-        <v>0.2669316799715774</v>
-      </c>
-      <c r="J5">
-        <v>0.2669316799715774</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>6.97730092922648</v>
-      </c>
-      <c r="N5">
-        <v>6.97730092922648</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>560.0112175791597</v>
-      </c>
-      <c r="R5">
-        <v>560.0112175791597</v>
-      </c>
-      <c r="S5">
-        <v>0.2669316799715774</v>
-      </c>
-      <c r="T5">
-        <v>0.2669316799715774</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>137.4747006666667</v>
+      </c>
+      <c r="H8">
+        <v>412.424102</v>
+      </c>
+      <c r="I8">
+        <v>0.3595505005759843</v>
+      </c>
+      <c r="J8">
+        <v>0.3595505005759843</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.144105333333334</v>
+      </c>
+      <c r="N8">
+        <v>24.432316</v>
+      </c>
+      <c r="O8">
+        <v>0.9411764977800856</v>
+      </c>
+      <c r="P8">
+        <v>0.9411764977800856</v>
+      </c>
+      <c r="Q8">
+        <v>1119.608442897804</v>
+      </c>
+      <c r="R8">
+        <v>10076.47598608023</v>
+      </c>
+      <c r="S8">
+        <v>0.3384004809071816</v>
+      </c>
+      <c r="T8">
+        <v>0.3384004809071816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>137.4747006666667</v>
+      </c>
+      <c r="H9">
+        <v>412.424102</v>
+      </c>
+      <c r="I9">
+        <v>0.3595505005759843</v>
+      </c>
+      <c r="J9">
+        <v>0.3595505005759843</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.379923</v>
+      </c>
+      <c r="N9">
+        <v>1.139769</v>
+      </c>
+      <c r="O9">
+        <v>0.043905939809321</v>
+      </c>
+      <c r="P9">
+        <v>0.043905939809321</v>
+      </c>
+      <c r="Q9">
+        <v>52.229800701382</v>
+      </c>
+      <c r="R9">
+        <v>470.068206312438</v>
+      </c>
+      <c r="S9">
+        <v>0.0157864026367004</v>
+      </c>
+      <c r="T9">
+        <v>0.0157864026367004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>81.80342533333332</v>
+      </c>
+      <c r="H10">
+        <v>245.410276</v>
+      </c>
+      <c r="I10">
+        <v>0.2139481838098067</v>
+      </c>
+      <c r="J10">
+        <v>0.2139481838098067</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.029758</v>
+      </c>
+      <c r="N10">
+        <v>0.08927399999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.003438994103662516</v>
+      </c>
+      <c r="P10">
+        <v>0.003438994103662516</v>
+      </c>
+      <c r="Q10">
+        <v>2.434306331069333</v>
+      </c>
+      <c r="R10">
+        <v>21.90875697962399</v>
+      </c>
+      <c r="S10">
+        <v>0.0007357665426112293</v>
+      </c>
+      <c r="T10">
+        <v>0.0007357665426112294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>81.80342533333332</v>
+      </c>
+      <c r="H11">
+        <v>245.410276</v>
+      </c>
+      <c r="I11">
+        <v>0.2139481838098067</v>
+      </c>
+      <c r="J11">
+        <v>0.2139481838098067</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.09932533333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.297976</v>
+      </c>
+      <c r="O11">
+        <v>0.01147856830693082</v>
+      </c>
+      <c r="P11">
+        <v>0.01147856830693082</v>
+      </c>
+      <c r="Q11">
+        <v>8.125152489041778</v>
+      </c>
+      <c r="R11">
+        <v>73.126372401376</v>
+      </c>
+      <c r="S11">
+        <v>0.002455818842004656</v>
+      </c>
+      <c r="T11">
+        <v>0.002455818842004657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>81.80342533333332</v>
+      </c>
+      <c r="H12">
+        <v>245.410276</v>
+      </c>
+      <c r="I12">
+        <v>0.2139481838098067</v>
+      </c>
+      <c r="J12">
+        <v>0.2139481838098067</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.144105333333334</v>
+      </c>
+      <c r="N12">
+        <v>24.432316</v>
+      </c>
+      <c r="O12">
+        <v>0.9411764977800856</v>
+      </c>
+      <c r="P12">
+        <v>0.9411764977800856</v>
+      </c>
+      <c r="Q12">
+        <v>666.2157125421351</v>
+      </c>
+      <c r="R12">
+        <v>5995.941412879216</v>
+      </c>
+      <c r="S12">
+        <v>0.2013630023445238</v>
+      </c>
+      <c r="T12">
+        <v>0.2013630023445239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>81.80342533333332</v>
+      </c>
+      <c r="H13">
+        <v>245.410276</v>
+      </c>
+      <c r="I13">
+        <v>0.2139481838098067</v>
+      </c>
+      <c r="J13">
+        <v>0.2139481838098067</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.379923</v>
+      </c>
+      <c r="N13">
+        <v>1.139769</v>
+      </c>
+      <c r="O13">
+        <v>0.043905939809321</v>
+      </c>
+      <c r="P13">
+        <v>0.043905939809321</v>
+      </c>
+      <c r="Q13">
+        <v>31.079002762916</v>
+      </c>
+      <c r="R13">
+        <v>279.711024866244</v>
+      </c>
+      <c r="S13">
+        <v>0.009393596080666916</v>
+      </c>
+      <c r="T13">
+        <v>0.009393596080666916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>122.756256</v>
+      </c>
+      <c r="H14">
+        <v>368.268768</v>
+      </c>
+      <c r="I14">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="J14">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.029758</v>
+      </c>
+      <c r="N14">
+        <v>0.08927399999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.003438994103662516</v>
+      </c>
+      <c r="P14">
+        <v>0.003438994103662516</v>
+      </c>
+      <c r="Q14">
+        <v>3.652980666048</v>
+      </c>
+      <c r="R14">
+        <v>32.876825994432</v>
+      </c>
+      <c r="S14">
+        <v>0.001104109585790356</v>
+      </c>
+      <c r="T14">
+        <v>0.001104109585790356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>122.756256</v>
+      </c>
+      <c r="H15">
+        <v>368.268768</v>
+      </c>
+      <c r="I15">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="J15">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.09932533333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.297976</v>
+      </c>
+      <c r="O15">
+        <v>0.01147856830693082</v>
+      </c>
+      <c r="P15">
+        <v>0.01147856830693082</v>
+      </c>
+      <c r="Q15">
+        <v>12.192806045952</v>
+      </c>
+      <c r="R15">
+        <v>109.735254413568</v>
+      </c>
+      <c r="S15">
+        <v>0.00368526287536648</v>
+      </c>
+      <c r="T15">
+        <v>0.003685262875366481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>122.756256</v>
+      </c>
+      <c r="H16">
+        <v>368.268768</v>
+      </c>
+      <c r="I16">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="J16">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.144105333333334</v>
+      </c>
+      <c r="N16">
+        <v>24.432316</v>
+      </c>
+      <c r="O16">
+        <v>0.9411764977800856</v>
+      </c>
+      <c r="P16">
+        <v>0.9411764977800856</v>
+      </c>
+      <c r="Q16">
+        <v>999.7398791896321</v>
+      </c>
+      <c r="R16">
+        <v>8997.658912706689</v>
+      </c>
+      <c r="S16">
+        <v>0.3021703328926574</v>
+      </c>
+      <c r="T16">
+        <v>0.3021703328926574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>122.756256</v>
+      </c>
+      <c r="H17">
+        <v>368.268768</v>
+      </c>
+      <c r="I17">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="J17">
+        <v>0.321055969422711</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.379923</v>
+      </c>
+      <c r="N17">
+        <v>1.139769</v>
+      </c>
+      <c r="O17">
+        <v>0.043905939809321</v>
+      </c>
+      <c r="P17">
+        <v>0.043905939809321</v>
+      </c>
+      <c r="Q17">
+        <v>46.637925048288</v>
+      </c>
+      <c r="R17">
+        <v>419.7413254345921</v>
+      </c>
+      <c r="S17">
+        <v>0.01409626406889675</v>
+      </c>
+      <c r="T17">
+        <v>0.01409626406889675</v>
       </c>
     </row>
   </sheetData>
